--- a/NoH2O_rough.xlsx
+++ b/NoH2O_rough.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="2720" windowWidth="25360" windowHeight="17300" tabRatio="500"/>
+    <workbookView xWindow="1540" yWindow="4500" windowWidth="25360" windowHeight="17300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
